--- a/音檔/切割音檔/clean_data/語音辨識判定.xlsx
+++ b/音檔/切割音檔/clean_data/語音辨識判定.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tku365-my.sharepoint.com/personal/410410103_o365_tku_edu_tw/Documents/桌面/Japanese-Speech-Assessment/音檔/切割音檔/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tku365-my.sharepoint.com/personal/410410103_o365_tku_edu_tw/Documents/桌面/Japanese-Speech-Assessment/音檔/切割音檔/clean_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{9BDDFB54-253B-4655-941D-479C4F087B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E886EAB9-2D3D-4857-950B-7E47E9195DCE}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{9BDDFB54-253B-4655-941D-479C4F087B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A15286CF-0F7E-4EE1-AF45-C93E16FB8334}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1092" windowWidth="10500" windowHeight="10320" xr2:uid="{318B4021-ED82-4693-AA55-B6AF23D19C45}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{318B4021-ED82-4693-AA55-B6AF23D19C45}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -594,13 +594,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9218CB0-C5D6-4E01-B00C-3DD0BCB93E1E}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
